--- a/Dynamic Scheduler/Results/workout_schedule.xlsx
+++ b/Dynamic Scheduler/Results/workout_schedule.xlsx
@@ -785,34 +785,34 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D9" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E9" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
         <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J9" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L9" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10">
@@ -831,22 +831,22 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -908,31 +908,31 @@
         <v>2</v>
       </c>
       <c r="D12" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E12" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G12" t="n">
         <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J12" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L12" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="13">
@@ -951,22 +951,22 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -1138,34 +1138,34 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>5.063888888888888</v>
+        <v>4.984374999999999</v>
       </c>
       <c r="C2" t="n">
-        <v>3.051388888888888</v>
+        <v>4.078125</v>
       </c>
       <c r="D2" t="n">
-        <v>2.229166666666667</v>
+        <v>2.697916666666667</v>
       </c>
       <c r="E2" t="n">
-        <v>1.220555555555555</v>
+        <v>2.895833333333333</v>
       </c>
       <c r="F2" t="n">
-        <v>2.542013888888889</v>
+        <v>3.119791666666666</v>
       </c>
       <c r="G2" t="n">
-        <v>3.184236111111111</v>
+        <v>3.55162037037037</v>
       </c>
       <c r="H2" t="n">
-        <v>2.229166666666667</v>
+        <v>3.554398148148147</v>
       </c>
       <c r="I2" t="n">
-        <v>0.6979166666666666</v>
+        <v>1.0859375</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>2.287037037037037</v>
+        <v>3.697916666666666</v>
       </c>
     </row>
     <row r="3">
@@ -1175,34 +1175,34 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>5.063888888888888</v>
+        <v>4.984374999999999</v>
       </c>
       <c r="C3" t="n">
-        <v>3.051388888888888</v>
+        <v>4.078125</v>
       </c>
       <c r="D3" t="n">
-        <v>2.229166666666667</v>
+        <v>2.697916666666667</v>
       </c>
       <c r="E3" t="n">
-        <v>1.220555555555555</v>
+        <v>2.895833333333333</v>
       </c>
       <c r="F3" t="n">
-        <v>2.542013888888889</v>
+        <v>3.119791666666666</v>
       </c>
       <c r="G3" t="n">
-        <v>3.184236111111111</v>
+        <v>3.55162037037037</v>
       </c>
       <c r="H3" t="n">
-        <v>2.229166666666667</v>
+        <v>3.554398148148147</v>
       </c>
       <c r="I3" t="n">
-        <v>0.6979166666666666</v>
+        <v>1.0859375</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>2.287037037037037</v>
+        <v>3.697916666666666</v>
       </c>
     </row>
     <row r="4">
@@ -1212,34 +1212,34 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>5.063888888888888</v>
+        <v>4.984374999999999</v>
       </c>
       <c r="C4" t="n">
-        <v>3.051388888888888</v>
+        <v>4.078125</v>
       </c>
       <c r="D4" t="n">
-        <v>2.229166666666667</v>
+        <v>2.697916666666667</v>
       </c>
       <c r="E4" t="n">
-        <v>1.220555555555555</v>
+        <v>2.895833333333333</v>
       </c>
       <c r="F4" t="n">
-        <v>2.542013888888889</v>
+        <v>3.119791666666666</v>
       </c>
       <c r="G4" t="n">
-        <v>3.184236111111111</v>
+        <v>3.55162037037037</v>
       </c>
       <c r="H4" t="n">
-        <v>2.229166666666667</v>
+        <v>3.554398148148147</v>
       </c>
       <c r="I4" t="n">
-        <v>0.6979166666666666</v>
+        <v>1.0859375</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>2.287037037037037</v>
+        <v>3.697916666666666</v>
       </c>
     </row>
     <row r="5">
@@ -1249,34 +1249,34 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>5.063888888888888</v>
+        <v>4.984374999999999</v>
       </c>
       <c r="C5" t="n">
-        <v>3.051388888888888</v>
+        <v>4.078125</v>
       </c>
       <c r="D5" t="n">
-        <v>2.229166666666667</v>
+        <v>2.697916666666667</v>
       </c>
       <c r="E5" t="n">
-        <v>1.220555555555555</v>
+        <v>2.895833333333333</v>
       </c>
       <c r="F5" t="n">
-        <v>2.542013888888889</v>
+        <v>3.119791666666666</v>
       </c>
       <c r="G5" t="n">
-        <v>3.184236111111111</v>
+        <v>3.55162037037037</v>
       </c>
       <c r="H5" t="n">
-        <v>2.229166666666667</v>
+        <v>3.554398148148147</v>
       </c>
       <c r="I5" t="n">
-        <v>0.6979166666666666</v>
+        <v>1.0859375</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>2.287037037037037</v>
+        <v>3.697916666666666</v>
       </c>
     </row>
     <row r="6">
@@ -1286,34 +1286,34 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>5.063888888888888</v>
+        <v>4.984374999999999</v>
       </c>
       <c r="C6" t="n">
-        <v>3.051388888888888</v>
+        <v>4.078125</v>
       </c>
       <c r="D6" t="n">
-        <v>2.229166666666667</v>
+        <v>2.697916666666667</v>
       </c>
       <c r="E6" t="n">
-        <v>1.220555555555555</v>
+        <v>2.895833333333333</v>
       </c>
       <c r="F6" t="n">
-        <v>2.542013888888889</v>
+        <v>3.119791666666666</v>
       </c>
       <c r="G6" t="n">
-        <v>3.184236111111111</v>
+        <v>3.55162037037037</v>
       </c>
       <c r="H6" t="n">
-        <v>2.229166666666667</v>
+        <v>3.554398148148147</v>
       </c>
       <c r="I6" t="n">
-        <v>0.6979166666666666</v>
+        <v>1.0859375</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>2.287037037037037</v>
+        <v>3.697916666666666</v>
       </c>
     </row>
     <row r="7">
@@ -1323,34 +1323,34 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>5.063888888888888</v>
+        <v>4.984374999999999</v>
       </c>
       <c r="C7" t="n">
-        <v>3.051388888888888</v>
+        <v>4.078125</v>
       </c>
       <c r="D7" t="n">
-        <v>2.229166666666667</v>
+        <v>2.697916666666667</v>
       </c>
       <c r="E7" t="n">
-        <v>1.220555555555555</v>
+        <v>2.895833333333333</v>
       </c>
       <c r="F7" t="n">
-        <v>2.542013888888889</v>
+        <v>3.119791666666666</v>
       </c>
       <c r="G7" t="n">
-        <v>3.184236111111111</v>
+        <v>3.55162037037037</v>
       </c>
       <c r="H7" t="n">
-        <v>2.229166666666667</v>
+        <v>3.554398148148147</v>
       </c>
       <c r="I7" t="n">
-        <v>0.6979166666666666</v>
+        <v>1.0859375</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>2.287037037037037</v>
+        <v>3.697916666666666</v>
       </c>
     </row>
     <row r="8">
@@ -1360,34 +1360,34 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>5.063888888888888</v>
+        <v>4.984374999999999</v>
       </c>
       <c r="C8" t="n">
-        <v>3.051388888888888</v>
+        <v>4.078125</v>
       </c>
       <c r="D8" t="n">
-        <v>2.229166666666667</v>
+        <v>2.697916666666667</v>
       </c>
       <c r="E8" t="n">
-        <v>1.220555555555555</v>
+        <v>2.895833333333333</v>
       </c>
       <c r="F8" t="n">
-        <v>2.542013888888889</v>
+        <v>3.119791666666666</v>
       </c>
       <c r="G8" t="n">
-        <v>3.184236111111111</v>
+        <v>3.55162037037037</v>
       </c>
       <c r="H8" t="n">
-        <v>2.229166666666667</v>
+        <v>3.554398148148147</v>
       </c>
       <c r="I8" t="n">
-        <v>0.6979166666666666</v>
+        <v>1.0859375</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>2.287037037037037</v>
+        <v>3.697916666666666</v>
       </c>
     </row>
   </sheetData>
@@ -1510,34 +1510,34 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>3.25</v>
+        <v>4.25</v>
       </c>
       <c r="C3" t="n">
         <v>4.25</v>
       </c>
       <c r="D3" t="n">
-        <v>3.25</v>
+        <v>1.25</v>
       </c>
       <c r="E3" t="n">
-        <v>2.9</v>
+        <v>2.1</v>
       </c>
       <c r="F3" t="n">
-        <v>4.0625</v>
+        <v>2.0625</v>
       </c>
       <c r="G3" t="n">
-        <v>3.0375</v>
+        <v>1.6375</v>
       </c>
       <c r="H3" t="n">
-        <v>3.25</v>
+        <v>1.25</v>
       </c>
       <c r="I3" t="n">
-        <v>0.0625</v>
+        <v>1.0625</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>4.125</v>
+        <v>2.125</v>
       </c>
     </row>
     <row r="4">
@@ -1547,34 +1547,34 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1.625</v>
+        <v>2.125</v>
       </c>
       <c r="C4" t="n">
         <v>2.125</v>
       </c>
       <c r="D4" t="n">
-        <v>1.625</v>
+        <v>2.625</v>
       </c>
       <c r="E4" t="n">
-        <v>1.45</v>
+        <v>3.05</v>
       </c>
       <c r="F4" t="n">
-        <v>2.03125</v>
+        <v>3.03125</v>
       </c>
       <c r="G4" t="n">
-        <v>1.51875</v>
+        <v>2.81875</v>
       </c>
       <c r="H4" t="n">
-        <v>1.625</v>
+        <v>3.625</v>
       </c>
       <c r="I4" t="n">
-        <v>0.03125</v>
+        <v>0.53125</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>2.0625</v>
+        <v>3.0625</v>
       </c>
     </row>
     <row r="5">
@@ -1584,34 +1584,34 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.8125</v>
+        <v>1.0625</v>
       </c>
       <c r="C5" t="n">
         <v>1.0625</v>
       </c>
       <c r="D5" t="n">
-        <v>0.8125</v>
+        <v>1.3125</v>
       </c>
       <c r="E5" t="n">
-        <v>0.7250000000000001</v>
+        <v>1.525</v>
       </c>
       <c r="F5" t="n">
-        <v>1.015625</v>
+        <v>1.515625</v>
       </c>
       <c r="G5" t="n">
-        <v>0.759375</v>
+        <v>1.409375</v>
       </c>
       <c r="H5" t="n">
-        <v>0.8125</v>
+        <v>1.8125</v>
       </c>
       <c r="I5" t="n">
-        <v>0.015625</v>
+        <v>0.265625</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>1.03125</v>
+        <v>1.53125</v>
       </c>
     </row>
     <row r="6">
@@ -1621,34 +1621,34 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>5.40625</v>
+        <v>4.53125</v>
       </c>
       <c r="C6" t="n">
         <v>4.53125</v>
       </c>
       <c r="D6" t="n">
-        <v>2.40625</v>
+        <v>0.65625</v>
       </c>
       <c r="E6" t="n">
-        <v>1.9625</v>
+        <v>1.5625</v>
       </c>
       <c r="F6" t="n">
-        <v>2.5078125</v>
+        <v>1.7578125</v>
       </c>
       <c r="G6" t="n">
-        <v>3.9796875</v>
+        <v>1.3046875</v>
       </c>
       <c r="H6" t="n">
-        <v>2.40625</v>
+        <v>0.90625</v>
       </c>
       <c r="I6" t="n">
-        <v>1.0078125</v>
+        <v>1.1328125</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>0.515625</v>
+        <v>2.765625</v>
       </c>
     </row>
     <row r="7">
@@ -1658,34 +1658,34 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2.703125</v>
+        <v>2.265625</v>
       </c>
       <c r="C7" t="n">
         <v>2.265625</v>
       </c>
       <c r="D7" t="n">
-        <v>1.203125</v>
+        <v>2.328125</v>
       </c>
       <c r="E7" t="n">
-        <v>0.9812500000000001</v>
+        <v>2.78125</v>
       </c>
       <c r="F7" t="n">
-        <v>1.25390625</v>
+        <v>2.87890625</v>
       </c>
       <c r="G7" t="n">
-        <v>1.98984375</v>
+        <v>4.65234375</v>
       </c>
       <c r="H7" t="n">
-        <v>1.203125</v>
+        <v>4.453125</v>
       </c>
       <c r="I7" t="n">
-        <v>0.50390625</v>
+        <v>0.56640625</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>0.2578125</v>
+        <v>1.3828125</v>
       </c>
     </row>
     <row r="8">
@@ -1695,34 +1695,34 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1.3515625</v>
+        <v>1.1328125</v>
       </c>
       <c r="C8" t="n">
         <v>1.1328125</v>
       </c>
       <c r="D8" t="n">
-        <v>0.6015625</v>
+        <v>1.1640625</v>
       </c>
       <c r="E8" t="n">
-        <v>0.490625</v>
+        <v>1.390625</v>
       </c>
       <c r="F8" t="n">
-        <v>0.626953125</v>
+        <v>1.439453125</v>
       </c>
       <c r="G8" t="n">
-        <v>0.994921875</v>
+        <v>2.326171875</v>
       </c>
       <c r="H8" t="n">
-        <v>0.6015625</v>
+        <v>2.2265625</v>
       </c>
       <c r="I8" t="n">
-        <v>0.251953125</v>
+        <v>0.283203125</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>0.12890625</v>
+        <v>0.69140625</v>
       </c>
     </row>
   </sheetData>
@@ -1768,10 +1768,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>90</v>
+        <v>60</v>
       </c>
       <c r="C2" t="n">
-        <v>90</v>
+        <v>60</v>
       </c>
     </row>
     <row r="3">
@@ -1781,10 +1781,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>60</v>
       </c>
     </row>
     <row r="4">
@@ -1807,10 +1807,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>90</v>
+        <v>60</v>
       </c>
       <c r="C5" t="n">
-        <v>90</v>
+        <v>60</v>
       </c>
     </row>
     <row r="6">
@@ -1820,10 +1820,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>60</v>
       </c>
     </row>
     <row r="7">
@@ -1939,25 +1939,25 @@
         <v>4</v>
       </c>
       <c r="E2" t="n">
-        <v>3.2</v>
+        <v>5.6</v>
       </c>
       <c r="F2" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G2" t="n">
-        <v>5.6</v>
+        <v>7.2</v>
       </c>
       <c r="H2" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="I2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3">
@@ -2041,10 +2041,10 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>180</v>
+        <v>240</v>
       </c>
       <c r="D2" t="n">
-        <v>18.1925462962963</v>
+        <v>11.42002314814815</v>
       </c>
     </row>
   </sheetData>

--- a/Dynamic Scheduler/Results/workout_schedule.xlsx
+++ b/Dynamic Scheduler/Results/workout_schedule.xlsx
@@ -785,10 +785,10 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E9" t="n">
         <v>0</v>
@@ -803,16 +803,16 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -831,22 +831,22 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -868,7 +868,7 @@
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
@@ -889,10 +889,10 @@
         <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="12">
@@ -905,34 +905,34 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E12" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F12" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G12" t="n">
         <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I12" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K12" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -951,22 +951,22 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -1138,34 +1138,34 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>4.984374999999999</v>
+        <v>2.347222222222222</v>
       </c>
       <c r="C2" t="n">
-        <v>4.078125</v>
+        <v>4.246064814814814</v>
       </c>
       <c r="D2" t="n">
-        <v>2.697916666666667</v>
+        <v>1.979166666666666</v>
       </c>
       <c r="E2" t="n">
-        <v>2.895833333333333</v>
+        <v>0.8377777777777776</v>
       </c>
       <c r="F2" t="n">
-        <v>3.119791666666666</v>
+        <v>1.987268518518518</v>
       </c>
       <c r="G2" t="n">
-        <v>3.55162037037037</v>
+        <v>2.001597222222222</v>
       </c>
       <c r="H2" t="n">
-        <v>3.554398148148147</v>
+        <v>1.979166666666666</v>
       </c>
       <c r="I2" t="n">
-        <v>1.0859375</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>3.697916666666666</v>
+        <v>2.392361111111111</v>
       </c>
     </row>
     <row r="3">
@@ -1175,34 +1175,34 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>4.984374999999999</v>
+        <v>2.347222222222222</v>
       </c>
       <c r="C3" t="n">
-        <v>4.078125</v>
+        <v>4.246064814814814</v>
       </c>
       <c r="D3" t="n">
-        <v>2.697916666666667</v>
+        <v>1.979166666666666</v>
       </c>
       <c r="E3" t="n">
-        <v>2.895833333333333</v>
+        <v>0.8377777777777776</v>
       </c>
       <c r="F3" t="n">
-        <v>3.119791666666666</v>
+        <v>1.987268518518518</v>
       </c>
       <c r="G3" t="n">
-        <v>3.55162037037037</v>
+        <v>2.001597222222222</v>
       </c>
       <c r="H3" t="n">
-        <v>3.554398148148147</v>
+        <v>1.979166666666666</v>
       </c>
       <c r="I3" t="n">
-        <v>1.0859375</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>3.697916666666666</v>
+        <v>2.392361111111111</v>
       </c>
     </row>
     <row r="4">
@@ -1212,34 +1212,34 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>4.984374999999999</v>
+        <v>2.347222222222222</v>
       </c>
       <c r="C4" t="n">
-        <v>4.078125</v>
+        <v>4.246064814814814</v>
       </c>
       <c r="D4" t="n">
-        <v>2.697916666666667</v>
+        <v>1.979166666666666</v>
       </c>
       <c r="E4" t="n">
-        <v>2.895833333333333</v>
+        <v>0.8377777777777776</v>
       </c>
       <c r="F4" t="n">
-        <v>3.119791666666666</v>
+        <v>1.987268518518518</v>
       </c>
       <c r="G4" t="n">
-        <v>3.55162037037037</v>
+        <v>2.001597222222222</v>
       </c>
       <c r="H4" t="n">
-        <v>3.554398148148147</v>
+        <v>1.979166666666666</v>
       </c>
       <c r="I4" t="n">
-        <v>1.0859375</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>3.697916666666666</v>
+        <v>2.392361111111111</v>
       </c>
     </row>
     <row r="5">
@@ -1249,34 +1249,34 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>4.984374999999999</v>
+        <v>2.347222222222222</v>
       </c>
       <c r="C5" t="n">
-        <v>4.078125</v>
+        <v>4.246064814814814</v>
       </c>
       <c r="D5" t="n">
-        <v>2.697916666666667</v>
+        <v>1.979166666666666</v>
       </c>
       <c r="E5" t="n">
-        <v>2.895833333333333</v>
+        <v>0.8377777777777776</v>
       </c>
       <c r="F5" t="n">
-        <v>3.119791666666666</v>
+        <v>1.987268518518518</v>
       </c>
       <c r="G5" t="n">
-        <v>3.55162037037037</v>
+        <v>2.001597222222222</v>
       </c>
       <c r="H5" t="n">
-        <v>3.554398148148147</v>
+        <v>1.979166666666666</v>
       </c>
       <c r="I5" t="n">
-        <v>1.0859375</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>3.697916666666666</v>
+        <v>2.392361111111111</v>
       </c>
     </row>
     <row r="6">
@@ -1286,34 +1286,34 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>4.984374999999999</v>
+        <v>2.347222222222222</v>
       </c>
       <c r="C6" t="n">
-        <v>4.078125</v>
+        <v>4.246064814814814</v>
       </c>
       <c r="D6" t="n">
-        <v>2.697916666666667</v>
+        <v>1.979166666666666</v>
       </c>
       <c r="E6" t="n">
-        <v>2.895833333333333</v>
+        <v>0.8377777777777776</v>
       </c>
       <c r="F6" t="n">
-        <v>3.119791666666666</v>
+        <v>1.987268518518518</v>
       </c>
       <c r="G6" t="n">
-        <v>3.55162037037037</v>
+        <v>2.001597222222222</v>
       </c>
       <c r="H6" t="n">
-        <v>3.554398148148147</v>
+        <v>1.979166666666666</v>
       </c>
       <c r="I6" t="n">
-        <v>1.0859375</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>3.697916666666666</v>
+        <v>2.392361111111111</v>
       </c>
     </row>
     <row r="7">
@@ -1323,34 +1323,34 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>4.984374999999999</v>
+        <v>2.347222222222222</v>
       </c>
       <c r="C7" t="n">
-        <v>4.078125</v>
+        <v>4.246064814814814</v>
       </c>
       <c r="D7" t="n">
-        <v>2.697916666666667</v>
+        <v>1.979166666666666</v>
       </c>
       <c r="E7" t="n">
-        <v>2.895833333333333</v>
+        <v>0.8377777777777776</v>
       </c>
       <c r="F7" t="n">
-        <v>3.119791666666666</v>
+        <v>1.987268518518518</v>
       </c>
       <c r="G7" t="n">
-        <v>3.55162037037037</v>
+        <v>2.001597222222222</v>
       </c>
       <c r="H7" t="n">
-        <v>3.554398148148147</v>
+        <v>1.979166666666666</v>
       </c>
       <c r="I7" t="n">
-        <v>1.0859375</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>3.697916666666666</v>
+        <v>2.392361111111111</v>
       </c>
     </row>
     <row r="8">
@@ -1360,34 +1360,34 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>4.984374999999999</v>
+        <v>2.347222222222222</v>
       </c>
       <c r="C8" t="n">
-        <v>4.078125</v>
+        <v>4.246064814814814</v>
       </c>
       <c r="D8" t="n">
-        <v>2.697916666666667</v>
+        <v>1.979166666666666</v>
       </c>
       <c r="E8" t="n">
-        <v>2.895833333333333</v>
+        <v>0.8377777777777776</v>
       </c>
       <c r="F8" t="n">
-        <v>3.119791666666666</v>
+        <v>1.987268518518518</v>
       </c>
       <c r="G8" t="n">
-        <v>3.55162037037037</v>
+        <v>2.001597222222222</v>
       </c>
       <c r="H8" t="n">
-        <v>3.554398148148147</v>
+        <v>1.979166666666666</v>
       </c>
       <c r="I8" t="n">
-        <v>1.0859375</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>3.697916666666666</v>
+        <v>2.392361111111111</v>
       </c>
     </row>
   </sheetData>
@@ -1510,34 +1510,34 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>4.25</v>
+        <v>0.25</v>
       </c>
       <c r="C3" t="n">
-        <v>4.25</v>
+        <v>0.25</v>
       </c>
       <c r="D3" t="n">
         <v>1.25</v>
       </c>
       <c r="E3" t="n">
-        <v>2.1</v>
+        <v>1.3</v>
       </c>
       <c r="F3" t="n">
-        <v>2.0625</v>
+        <v>1.0625</v>
       </c>
       <c r="G3" t="n">
-        <v>1.6375</v>
+        <v>1.0375</v>
       </c>
       <c r="H3" t="n">
         <v>1.25</v>
       </c>
       <c r="I3" t="n">
-        <v>1.0625</v>
+        <v>0.0625</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>2.125</v>
+        <v>0.125</v>
       </c>
     </row>
     <row r="4">
@@ -1547,34 +1547,34 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>2.125</v>
+        <v>0.125</v>
       </c>
       <c r="C4" t="n">
-        <v>2.125</v>
+        <v>0.125</v>
       </c>
       <c r="D4" t="n">
-        <v>2.625</v>
+        <v>0.625</v>
       </c>
       <c r="E4" t="n">
-        <v>3.05</v>
+        <v>0.65</v>
       </c>
       <c r="F4" t="n">
-        <v>3.03125</v>
+        <v>0.53125</v>
       </c>
       <c r="G4" t="n">
-        <v>2.81875</v>
+        <v>0.51875</v>
       </c>
       <c r="H4" t="n">
-        <v>3.625</v>
+        <v>0.625</v>
       </c>
       <c r="I4" t="n">
-        <v>0.53125</v>
+        <v>0.03125</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>3.0625</v>
+        <v>0.0625</v>
       </c>
     </row>
     <row r="5">
@@ -1584,34 +1584,34 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1.0625</v>
+        <v>4.0625</v>
       </c>
       <c r="C5" t="n">
-        <v>1.0625</v>
+        <v>8.0625</v>
       </c>
       <c r="D5" t="n">
-        <v>1.3125</v>
+        <v>0.3125</v>
       </c>
       <c r="E5" t="n">
-        <v>1.525</v>
+        <v>1.925</v>
       </c>
       <c r="F5" t="n">
-        <v>1.515625</v>
+        <v>2.265625</v>
       </c>
       <c r="G5" t="n">
-        <v>1.409375</v>
+        <v>0.259375</v>
       </c>
       <c r="H5" t="n">
-        <v>1.8125</v>
+        <v>0.3125</v>
       </c>
       <c r="I5" t="n">
-        <v>0.265625</v>
+        <v>0.015625</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>1.53125</v>
+        <v>0.03125</v>
       </c>
     </row>
     <row r="6">
@@ -1621,34 +1621,34 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>4.53125</v>
+        <v>2.03125</v>
       </c>
       <c r="C6" t="n">
-        <v>4.53125</v>
+        <v>4.03125</v>
       </c>
       <c r="D6" t="n">
-        <v>0.65625</v>
+        <v>3.15625</v>
       </c>
       <c r="E6" t="n">
-        <v>1.5625</v>
+        <v>0.9625</v>
       </c>
       <c r="F6" t="n">
-        <v>1.7578125</v>
+        <v>3.1328125</v>
       </c>
       <c r="G6" t="n">
-        <v>1.3046875</v>
+        <v>3.1296875</v>
       </c>
       <c r="H6" t="n">
-        <v>0.90625</v>
+        <v>3.15625</v>
       </c>
       <c r="I6" t="n">
-        <v>1.1328125</v>
+        <v>0.0078125</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>2.765625</v>
+        <v>4.015625</v>
       </c>
     </row>
     <row r="7">
@@ -1658,34 +1658,34 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2.265625</v>
+        <v>1.015625</v>
       </c>
       <c r="C7" t="n">
-        <v>2.265625</v>
+        <v>2.015625</v>
       </c>
       <c r="D7" t="n">
-        <v>2.328125</v>
+        <v>1.578125</v>
       </c>
       <c r="E7" t="n">
-        <v>2.78125</v>
+        <v>0.48125</v>
       </c>
       <c r="F7" t="n">
-        <v>2.87890625</v>
+        <v>1.56640625</v>
       </c>
       <c r="G7" t="n">
-        <v>4.65234375</v>
+        <v>1.56484375</v>
       </c>
       <c r="H7" t="n">
-        <v>4.453125</v>
+        <v>1.578125</v>
       </c>
       <c r="I7" t="n">
-        <v>0.56640625</v>
+        <v>0.00390625</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>1.3828125</v>
+        <v>2.0078125</v>
       </c>
     </row>
     <row r="8">
@@ -1695,34 +1695,34 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1.1328125</v>
+        <v>0.5078125</v>
       </c>
       <c r="C8" t="n">
-        <v>1.1328125</v>
+        <v>1.0078125</v>
       </c>
       <c r="D8" t="n">
-        <v>1.1640625</v>
+        <v>0.7890625</v>
       </c>
       <c r="E8" t="n">
-        <v>1.390625</v>
+        <v>0.240625</v>
       </c>
       <c r="F8" t="n">
-        <v>1.439453125</v>
+        <v>0.783203125</v>
       </c>
       <c r="G8" t="n">
-        <v>2.326171875</v>
+        <v>0.782421875</v>
       </c>
       <c r="H8" t="n">
-        <v>2.2265625</v>
+        <v>0.7890625</v>
       </c>
       <c r="I8" t="n">
-        <v>0.283203125</v>
+        <v>0.001953125</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>0.69140625</v>
+        <v>1.00390625</v>
       </c>
     </row>
   </sheetData>
@@ -1768,10 +1768,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>60</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -1781,10 +1781,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>60</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -1794,10 +1794,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>60</v>
       </c>
     </row>
     <row r="5">
@@ -1820,10 +1820,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>60</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -1930,34 +1930,34 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C2" t="n">
         <v>8</v>
       </c>
       <c r="D2" t="n">
+        <v>3</v>
+      </c>
+      <c r="E2" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="F2" t="n">
         <v>4</v>
       </c>
-      <c r="E2" t="n">
-        <v>5.6</v>
-      </c>
-      <c r="F2" t="n">
-        <v>6</v>
-      </c>
       <c r="G2" t="n">
-        <v>7.2</v>
+        <v>3</v>
       </c>
       <c r="H2" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="I2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3">
@@ -2041,10 +2041,10 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>240</v>
+        <v>120</v>
       </c>
       <c r="D2" t="n">
-        <v>11.42002314814815</v>
+        <v>22.229375</v>
       </c>
     </row>
   </sheetData>

--- a/Dynamic Scheduler/Results/workout_schedule.xlsx
+++ b/Dynamic Scheduler/Results/workout_schedule.xlsx
@@ -825,7 +825,7 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -834,7 +834,7 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -843,13 +843,13 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -868,7 +868,7 @@
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
@@ -889,10 +889,10 @@
         <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -911,22 +911,22 @@
         <v>0</v>
       </c>
       <c r="E12" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G12" t="n">
         <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -945,7 +945,7 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -957,22 +957,22 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L13" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="14">
@@ -994,22 +994,22 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L14" t="n">
         <v>0</v>
@@ -1138,34 +1138,34 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2.347222222222222</v>
+        <v>4.485555555555555</v>
       </c>
       <c r="C2" t="n">
-        <v>4.246064814814814</v>
+        <v>3.938541666666666</v>
       </c>
       <c r="D2" t="n">
-        <v>1.979166666666666</v>
+        <v>2.564236111111111</v>
       </c>
       <c r="E2" t="n">
-        <v>0.8377777777777776</v>
+        <v>2.588541666666667</v>
       </c>
       <c r="F2" t="n">
-        <v>1.987268518518518</v>
+        <v>1.969270833333333</v>
       </c>
       <c r="G2" t="n">
-        <v>2.001597222222222</v>
+        <v>3.082177083333333</v>
       </c>
       <c r="H2" t="n">
-        <v>1.979166666666666</v>
+        <v>2.807291666666667</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>1.539652777777778</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>2.392361111111111</v>
+        <v>3.119791666666666</v>
       </c>
     </row>
     <row r="3">
@@ -1175,34 +1175,34 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>2.347222222222222</v>
+        <v>4.485555555555555</v>
       </c>
       <c r="C3" t="n">
-        <v>4.246064814814814</v>
+        <v>3.938541666666666</v>
       </c>
       <c r="D3" t="n">
-        <v>1.979166666666666</v>
+        <v>2.564236111111111</v>
       </c>
       <c r="E3" t="n">
-        <v>0.8377777777777776</v>
+        <v>2.588541666666667</v>
       </c>
       <c r="F3" t="n">
-        <v>1.987268518518518</v>
+        <v>1.969270833333333</v>
       </c>
       <c r="G3" t="n">
-        <v>2.001597222222222</v>
+        <v>3.082177083333333</v>
       </c>
       <c r="H3" t="n">
-        <v>1.979166666666666</v>
+        <v>2.807291666666667</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>1.539652777777778</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>2.392361111111111</v>
+        <v>3.119791666666666</v>
       </c>
     </row>
     <row r="4">
@@ -1212,34 +1212,34 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>2.347222222222222</v>
+        <v>4.485555555555555</v>
       </c>
       <c r="C4" t="n">
-        <v>4.246064814814814</v>
+        <v>3.938541666666666</v>
       </c>
       <c r="D4" t="n">
-        <v>1.979166666666666</v>
+        <v>2.564236111111111</v>
       </c>
       <c r="E4" t="n">
-        <v>0.8377777777777776</v>
+        <v>2.588541666666667</v>
       </c>
       <c r="F4" t="n">
-        <v>1.987268518518518</v>
+        <v>1.969270833333333</v>
       </c>
       <c r="G4" t="n">
-        <v>2.001597222222222</v>
+        <v>3.082177083333333</v>
       </c>
       <c r="H4" t="n">
-        <v>1.979166666666666</v>
+        <v>2.807291666666667</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>1.539652777777778</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>2.392361111111111</v>
+        <v>3.119791666666666</v>
       </c>
     </row>
     <row r="5">
@@ -1249,34 +1249,34 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2.347222222222222</v>
+        <v>4.485555555555555</v>
       </c>
       <c r="C5" t="n">
-        <v>4.246064814814814</v>
+        <v>3.938541666666666</v>
       </c>
       <c r="D5" t="n">
-        <v>1.979166666666666</v>
+        <v>2.564236111111111</v>
       </c>
       <c r="E5" t="n">
-        <v>0.8377777777777776</v>
+        <v>2.588541666666667</v>
       </c>
       <c r="F5" t="n">
-        <v>1.987268518518518</v>
+        <v>1.969270833333333</v>
       </c>
       <c r="G5" t="n">
-        <v>2.001597222222222</v>
+        <v>3.082177083333333</v>
       </c>
       <c r="H5" t="n">
-        <v>1.979166666666666</v>
+        <v>2.807291666666667</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>1.539652777777778</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>2.392361111111111</v>
+        <v>3.119791666666666</v>
       </c>
     </row>
     <row r="6">
@@ -1286,34 +1286,34 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2.347222222222222</v>
+        <v>4.485555555555555</v>
       </c>
       <c r="C6" t="n">
-        <v>4.246064814814814</v>
+        <v>3.938541666666666</v>
       </c>
       <c r="D6" t="n">
-        <v>1.979166666666666</v>
+        <v>2.564236111111111</v>
       </c>
       <c r="E6" t="n">
-        <v>0.8377777777777776</v>
+        <v>2.588541666666667</v>
       </c>
       <c r="F6" t="n">
-        <v>1.987268518518518</v>
+        <v>1.969270833333333</v>
       </c>
       <c r="G6" t="n">
-        <v>2.001597222222222</v>
+        <v>3.082177083333333</v>
       </c>
       <c r="H6" t="n">
-        <v>1.979166666666666</v>
+        <v>2.807291666666667</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>1.539652777777778</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>2.392361111111111</v>
+        <v>3.119791666666666</v>
       </c>
     </row>
     <row r="7">
@@ -1323,34 +1323,34 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2.347222222222222</v>
+        <v>4.485555555555555</v>
       </c>
       <c r="C7" t="n">
-        <v>4.246064814814814</v>
+        <v>3.938541666666666</v>
       </c>
       <c r="D7" t="n">
-        <v>1.979166666666666</v>
+        <v>2.564236111111111</v>
       </c>
       <c r="E7" t="n">
-        <v>0.8377777777777776</v>
+        <v>2.588541666666667</v>
       </c>
       <c r="F7" t="n">
-        <v>1.987268518518518</v>
+        <v>1.969270833333333</v>
       </c>
       <c r="G7" t="n">
-        <v>2.001597222222222</v>
+        <v>3.082177083333333</v>
       </c>
       <c r="H7" t="n">
-        <v>1.979166666666666</v>
+        <v>2.807291666666667</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>1.539652777777778</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>2.392361111111111</v>
+        <v>3.119791666666666</v>
       </c>
     </row>
     <row r="8">
@@ -1360,34 +1360,34 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2.347222222222222</v>
+        <v>4.485555555555555</v>
       </c>
       <c r="C8" t="n">
-        <v>4.246064814814814</v>
+        <v>3.938541666666666</v>
       </c>
       <c r="D8" t="n">
-        <v>1.979166666666666</v>
+        <v>2.564236111111111</v>
       </c>
       <c r="E8" t="n">
-        <v>0.8377777777777776</v>
+        <v>2.588541666666667</v>
       </c>
       <c r="F8" t="n">
-        <v>1.987268518518518</v>
+        <v>1.969270833333333</v>
       </c>
       <c r="G8" t="n">
-        <v>2.001597222222222</v>
+        <v>3.082177083333333</v>
       </c>
       <c r="H8" t="n">
-        <v>1.979166666666666</v>
+        <v>2.807291666666667</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>1.539652777777778</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>2.392361111111111</v>
+        <v>3.119791666666666</v>
       </c>
     </row>
   </sheetData>
@@ -1482,7 +1482,7 @@
         <v>2.5</v>
       </c>
       <c r="E2" t="n">
-        <v>2.6</v>
+        <v>2.5</v>
       </c>
       <c r="F2" t="n">
         <v>2.125</v>
@@ -1519,7 +1519,7 @@
         <v>1.25</v>
       </c>
       <c r="E3" t="n">
-        <v>1.3</v>
+        <v>1.25</v>
       </c>
       <c r="F3" t="n">
         <v>1.0625</v>
@@ -1547,34 +1547,34 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.125</v>
+        <v>3.125</v>
       </c>
       <c r="C4" t="n">
-        <v>0.125</v>
+        <v>3.125</v>
       </c>
       <c r="D4" t="n">
         <v>0.625</v>
       </c>
       <c r="E4" t="n">
-        <v>0.65</v>
+        <v>0.625</v>
       </c>
       <c r="F4" t="n">
-        <v>0.53125</v>
+        <v>2.03125</v>
       </c>
       <c r="G4" t="n">
-        <v>0.51875</v>
+        <v>2.41875</v>
       </c>
       <c r="H4" t="n">
-        <v>0.625</v>
+        <v>2.625</v>
       </c>
       <c r="I4" t="n">
-        <v>0.03125</v>
+        <v>1.53125</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>0.0625</v>
+        <v>2.0625</v>
       </c>
     </row>
     <row r="5">
@@ -1584,34 +1584,34 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>4.0625</v>
+        <v>1.5625</v>
       </c>
       <c r="C5" t="n">
-        <v>8.0625</v>
+        <v>1.5625</v>
       </c>
       <c r="D5" t="n">
         <v>0.3125</v>
       </c>
       <c r="E5" t="n">
-        <v>1.925</v>
+        <v>0.3125</v>
       </c>
       <c r="F5" t="n">
-        <v>2.265625</v>
+        <v>1.015625</v>
       </c>
       <c r="G5" t="n">
-        <v>0.259375</v>
+        <v>1.209375</v>
       </c>
       <c r="H5" t="n">
-        <v>0.3125</v>
+        <v>1.3125</v>
       </c>
       <c r="I5" t="n">
-        <v>0.015625</v>
+        <v>0.765625</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>0.03125</v>
+        <v>1.03125</v>
       </c>
     </row>
     <row r="6">
@@ -1621,34 +1621,34 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2.03125</v>
+        <v>0.78125</v>
       </c>
       <c r="C6" t="n">
-        <v>4.03125</v>
+        <v>0.78125</v>
       </c>
       <c r="D6" t="n">
-        <v>3.15625</v>
+        <v>0.15625</v>
       </c>
       <c r="E6" t="n">
-        <v>0.9625</v>
+        <v>0.15625</v>
       </c>
       <c r="F6" t="n">
-        <v>3.1328125</v>
+        <v>0.5078125</v>
       </c>
       <c r="G6" t="n">
-        <v>3.1296875</v>
+        <v>0.6046875</v>
       </c>
       <c r="H6" t="n">
-        <v>3.15625</v>
+        <v>0.65625</v>
       </c>
       <c r="I6" t="n">
-        <v>0.0078125</v>
+        <v>0.3828125</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>4.015625</v>
+        <v>0.515625</v>
       </c>
     </row>
     <row r="7">
@@ -1658,34 +1658,34 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1.015625</v>
+        <v>4.390625</v>
       </c>
       <c r="C7" t="n">
-        <v>2.015625</v>
+        <v>2.390625</v>
       </c>
       <c r="D7" t="n">
-        <v>1.578125</v>
+        <v>0.078125</v>
       </c>
       <c r="E7" t="n">
-        <v>0.48125</v>
+        <v>2.078125</v>
       </c>
       <c r="F7" t="n">
-        <v>1.56640625</v>
+        <v>1.25390625</v>
       </c>
       <c r="G7" t="n">
-        <v>1.56484375</v>
+        <v>0.90234375</v>
       </c>
       <c r="H7" t="n">
-        <v>1.578125</v>
+        <v>0.328125</v>
       </c>
       <c r="I7" t="n">
-        <v>0.00390625</v>
+        <v>1.19140625</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>2.0078125</v>
+        <v>2.2578125</v>
       </c>
     </row>
     <row r="8">
@@ -1695,34 +1695,34 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.5078125</v>
+        <v>2.1953125</v>
       </c>
       <c r="C8" t="n">
-        <v>1.0078125</v>
+        <v>3.1953125</v>
       </c>
       <c r="D8" t="n">
-        <v>0.7890625</v>
+        <v>5.0390625</v>
       </c>
       <c r="E8" t="n">
-        <v>0.240625</v>
+        <v>3.0390625</v>
       </c>
       <c r="F8" t="n">
-        <v>0.783203125</v>
+        <v>1.626953125</v>
       </c>
       <c r="G8" t="n">
-        <v>0.782421875</v>
+        <v>2.451171875</v>
       </c>
       <c r="H8" t="n">
-        <v>0.7890625</v>
+        <v>2.1640625</v>
       </c>
       <c r="I8" t="n">
-        <v>0.001953125</v>
+        <v>0.595703125</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>1.00390625</v>
+        <v>1.12890625</v>
       </c>
     </row>
   </sheetData>
@@ -1771,7 +1771,7 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>60</v>
       </c>
     </row>
     <row r="3">
@@ -1781,10 +1781,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>60</v>
       </c>
     </row>
     <row r="4">
@@ -1794,10 +1794,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>60</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -1807,10 +1807,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>60</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -1820,10 +1820,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>60</v>
       </c>
     </row>
     <row r="7">
@@ -1833,10 +1833,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>60</v>
       </c>
     </row>
     <row r="8">
@@ -1930,28 +1930,28 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>7</v>
+      </c>
+      <c r="C2" t="n">
+        <v>7</v>
+      </c>
+      <c r="D2" t="n">
+        <v>5</v>
+      </c>
+      <c r="E2" t="n">
         <v>4</v>
       </c>
-      <c r="C2" t="n">
-        <v>8</v>
-      </c>
-      <c r="D2" t="n">
-        <v>3</v>
-      </c>
-      <c r="E2" t="n">
-        <v>1.6</v>
-      </c>
       <c r="F2" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="G2" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="H2" t="n">
         <v>4</v>
       </c>
-      <c r="G2" t="n">
-        <v>3</v>
-      </c>
-      <c r="H2" t="n">
-        <v>3</v>
-      </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -2041,10 +2041,10 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>120</v>
+        <v>180</v>
       </c>
       <c r="D2" t="n">
-        <v>22.229375</v>
+        <v>15.44459375</v>
       </c>
     </row>
   </sheetData>

--- a/Dynamic Scheduler/Results/workout_schedule.xlsx
+++ b/Dynamic Scheduler/Results/workout_schedule.xlsx
@@ -1,18 +1,18 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sets_Performed" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Effective_Volume" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Fatigue" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Time_Used_vs_Available" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Achieved_vs_Target_Volume" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Summary" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="Sets_Performed" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Effective_Volume" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Fatigue" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="Time_Used_vs_Available" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="Achieved_vs_Target_Volume" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="Summary" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -785,10 +785,10 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E9" t="n">
         <v>0</v>
@@ -803,16 +803,16 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10">
@@ -825,31 +825,31 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F10" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I10" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>2</v>
       </c>
       <c r="K10" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -948,7 +948,7 @@
         <v>2</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -957,7 +957,7 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -991,16 +991,16 @@
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F14" t="n">
         <v>2</v>
       </c>
       <c r="G14" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="H14" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1009,7 +1009,7 @@
         <v>2</v>
       </c>
       <c r="K14" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L14" t="n">
         <v>0</v>
@@ -1138,34 +1138,34 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>4.485555555555555</v>
+        <v>5.396354166666666</v>
       </c>
       <c r="C2" t="n">
-        <v>3.938541666666666</v>
+        <v>5.361979166666666</v>
       </c>
       <c r="D2" t="n">
-        <v>2.564236111111111</v>
+        <v>2.807291666666667</v>
       </c>
       <c r="E2" t="n">
-        <v>2.588541666666667</v>
+        <v>3.683989197530864</v>
       </c>
       <c r="F2" t="n">
-        <v>1.969270833333333</v>
+        <v>3.372395833333333</v>
       </c>
       <c r="G2" t="n">
-        <v>3.082177083333333</v>
+        <v>3.192083333333333</v>
       </c>
       <c r="H2" t="n">
         <v>2.807291666666667</v>
       </c>
       <c r="I2" t="n">
-        <v>1.539652777777778</v>
+        <v>1.203385416666666</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>3.119791666666666</v>
+        <v>3.161458333333333</v>
       </c>
     </row>
     <row r="3">
@@ -1175,34 +1175,34 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>4.485555555555555</v>
+        <v>5.396354166666666</v>
       </c>
       <c r="C3" t="n">
-        <v>3.938541666666666</v>
+        <v>5.361979166666666</v>
       </c>
       <c r="D3" t="n">
-        <v>2.564236111111111</v>
+        <v>2.807291666666667</v>
       </c>
       <c r="E3" t="n">
-        <v>2.588541666666667</v>
+        <v>3.683989197530864</v>
       </c>
       <c r="F3" t="n">
-        <v>1.969270833333333</v>
+        <v>3.372395833333333</v>
       </c>
       <c r="G3" t="n">
-        <v>3.082177083333333</v>
+        <v>3.192083333333333</v>
       </c>
       <c r="H3" t="n">
         <v>2.807291666666667</v>
       </c>
       <c r="I3" t="n">
-        <v>1.539652777777778</v>
+        <v>1.203385416666666</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>3.119791666666666</v>
+        <v>3.161458333333333</v>
       </c>
     </row>
     <row r="4">
@@ -1212,34 +1212,34 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>4.485555555555555</v>
+        <v>5.396354166666666</v>
       </c>
       <c r="C4" t="n">
-        <v>3.938541666666666</v>
+        <v>5.361979166666666</v>
       </c>
       <c r="D4" t="n">
-        <v>2.564236111111111</v>
+        <v>2.807291666666667</v>
       </c>
       <c r="E4" t="n">
-        <v>2.588541666666667</v>
+        <v>3.683989197530864</v>
       </c>
       <c r="F4" t="n">
-        <v>1.969270833333333</v>
+        <v>3.372395833333333</v>
       </c>
       <c r="G4" t="n">
-        <v>3.082177083333333</v>
+        <v>3.192083333333333</v>
       </c>
       <c r="H4" t="n">
         <v>2.807291666666667</v>
       </c>
       <c r="I4" t="n">
-        <v>1.539652777777778</v>
+        <v>1.203385416666666</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>3.119791666666666</v>
+        <v>3.161458333333333</v>
       </c>
     </row>
     <row r="5">
@@ -1249,34 +1249,34 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>4.485555555555555</v>
+        <v>5.396354166666666</v>
       </c>
       <c r="C5" t="n">
-        <v>3.938541666666666</v>
+        <v>5.361979166666666</v>
       </c>
       <c r="D5" t="n">
-        <v>2.564236111111111</v>
+        <v>2.807291666666667</v>
       </c>
       <c r="E5" t="n">
-        <v>2.588541666666667</v>
+        <v>3.683989197530864</v>
       </c>
       <c r="F5" t="n">
-        <v>1.969270833333333</v>
+        <v>3.372395833333333</v>
       </c>
       <c r="G5" t="n">
-        <v>3.082177083333333</v>
+        <v>3.192083333333333</v>
       </c>
       <c r="H5" t="n">
         <v>2.807291666666667</v>
       </c>
       <c r="I5" t="n">
-        <v>1.539652777777778</v>
+        <v>1.203385416666666</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>3.119791666666666</v>
+        <v>3.161458333333333</v>
       </c>
     </row>
     <row r="6">
@@ -1286,34 +1286,34 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>4.485555555555555</v>
+        <v>5.396354166666666</v>
       </c>
       <c r="C6" t="n">
-        <v>3.938541666666666</v>
+        <v>5.361979166666666</v>
       </c>
       <c r="D6" t="n">
-        <v>2.564236111111111</v>
+        <v>2.807291666666667</v>
       </c>
       <c r="E6" t="n">
-        <v>2.588541666666667</v>
+        <v>3.683989197530864</v>
       </c>
       <c r="F6" t="n">
-        <v>1.969270833333333</v>
+        <v>3.372395833333333</v>
       </c>
       <c r="G6" t="n">
-        <v>3.082177083333333</v>
+        <v>3.192083333333333</v>
       </c>
       <c r="H6" t="n">
         <v>2.807291666666667</v>
       </c>
       <c r="I6" t="n">
-        <v>1.539652777777778</v>
+        <v>1.203385416666666</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>3.119791666666666</v>
+        <v>3.161458333333333</v>
       </c>
     </row>
     <row r="7">
@@ -1323,34 +1323,34 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>4.485555555555555</v>
+        <v>5.396354166666666</v>
       </c>
       <c r="C7" t="n">
-        <v>3.938541666666666</v>
+        <v>5.361979166666666</v>
       </c>
       <c r="D7" t="n">
-        <v>2.564236111111111</v>
+        <v>2.807291666666667</v>
       </c>
       <c r="E7" t="n">
-        <v>2.588541666666667</v>
+        <v>3.683989197530864</v>
       </c>
       <c r="F7" t="n">
-        <v>1.969270833333333</v>
+        <v>3.372395833333333</v>
       </c>
       <c r="G7" t="n">
-        <v>3.082177083333333</v>
+        <v>3.192083333333333</v>
       </c>
       <c r="H7" t="n">
         <v>2.807291666666667</v>
       </c>
       <c r="I7" t="n">
-        <v>1.539652777777778</v>
+        <v>1.203385416666666</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>3.119791666666666</v>
+        <v>3.161458333333333</v>
       </c>
     </row>
     <row r="8">
@@ -1360,34 +1360,34 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>4.485555555555555</v>
+        <v>5.396354166666666</v>
       </c>
       <c r="C8" t="n">
-        <v>3.938541666666666</v>
+        <v>5.361979166666666</v>
       </c>
       <c r="D8" t="n">
-        <v>2.564236111111111</v>
+        <v>2.807291666666667</v>
       </c>
       <c r="E8" t="n">
-        <v>2.588541666666667</v>
+        <v>3.683989197530864</v>
       </c>
       <c r="F8" t="n">
-        <v>1.969270833333333</v>
+        <v>3.372395833333333</v>
       </c>
       <c r="G8" t="n">
-        <v>3.082177083333333</v>
+        <v>3.192083333333333</v>
       </c>
       <c r="H8" t="n">
         <v>2.807291666666667</v>
       </c>
       <c r="I8" t="n">
-        <v>1.539652777777778</v>
+        <v>1.203385416666666</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>3.119791666666666</v>
+        <v>3.161458333333333</v>
       </c>
     </row>
   </sheetData>
@@ -1510,10 +1510,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.25</v>
+        <v>4.25</v>
       </c>
       <c r="C3" t="n">
-        <v>0.25</v>
+        <v>4.25</v>
       </c>
       <c r="D3" t="n">
         <v>1.25</v>
@@ -1522,22 +1522,22 @@
         <v>1.25</v>
       </c>
       <c r="F3" t="n">
-        <v>1.0625</v>
+        <v>2.0625</v>
       </c>
       <c r="G3" t="n">
-        <v>1.0375</v>
+        <v>1.6375</v>
       </c>
       <c r="H3" t="n">
         <v>1.25</v>
       </c>
       <c r="I3" t="n">
-        <v>0.0625</v>
+        <v>1.0625</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>0.125</v>
+        <v>2.125</v>
       </c>
     </row>
     <row r="4">
@@ -1547,34 +1547,34 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>3.125</v>
+        <v>2.125</v>
       </c>
       <c r="C4" t="n">
-        <v>3.125</v>
+        <v>2.125</v>
       </c>
       <c r="D4" t="n">
-        <v>0.625</v>
+        <v>2.625</v>
       </c>
       <c r="E4" t="n">
-        <v>0.625</v>
+        <v>2.625</v>
       </c>
       <c r="F4" t="n">
-        <v>2.03125</v>
+        <v>3.03125</v>
       </c>
       <c r="G4" t="n">
-        <v>2.41875</v>
+        <v>2.81875</v>
       </c>
       <c r="H4" t="n">
         <v>2.625</v>
       </c>
       <c r="I4" t="n">
-        <v>1.53125</v>
+        <v>0.53125</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>2.0625</v>
+        <v>1.0625</v>
       </c>
     </row>
     <row r="5">
@@ -1584,34 +1584,34 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1.5625</v>
+        <v>1.0625</v>
       </c>
       <c r="C5" t="n">
-        <v>1.5625</v>
+        <v>1.0625</v>
       </c>
       <c r="D5" t="n">
-        <v>0.3125</v>
+        <v>1.3125</v>
       </c>
       <c r="E5" t="n">
-        <v>0.3125</v>
+        <v>1.3125</v>
       </c>
       <c r="F5" t="n">
-        <v>1.015625</v>
+        <v>1.515625</v>
       </c>
       <c r="G5" t="n">
-        <v>1.209375</v>
+        <v>1.409375</v>
       </c>
       <c r="H5" t="n">
         <v>1.3125</v>
       </c>
       <c r="I5" t="n">
-        <v>0.765625</v>
+        <v>0.265625</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>1.03125</v>
+        <v>0.53125</v>
       </c>
     </row>
     <row r="6">
@@ -1621,34 +1621,34 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.78125</v>
+        <v>0.53125</v>
       </c>
       <c r="C6" t="n">
-        <v>0.78125</v>
+        <v>0.53125</v>
       </c>
       <c r="D6" t="n">
-        <v>0.15625</v>
+        <v>0.65625</v>
       </c>
       <c r="E6" t="n">
-        <v>0.15625</v>
+        <v>0.65625</v>
       </c>
       <c r="F6" t="n">
-        <v>0.5078125</v>
+        <v>0.7578125</v>
       </c>
       <c r="G6" t="n">
-        <v>0.6046875</v>
+        <v>0.7046875</v>
       </c>
       <c r="H6" t="n">
         <v>0.65625</v>
       </c>
       <c r="I6" t="n">
-        <v>0.3828125</v>
+        <v>0.1328125</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>0.515625</v>
+        <v>0.265625</v>
       </c>
     </row>
     <row r="7">
@@ -1658,34 +1658,34 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>4.390625</v>
+        <v>4.265625</v>
       </c>
       <c r="C7" t="n">
-        <v>2.390625</v>
+        <v>4.265625</v>
       </c>
       <c r="D7" t="n">
-        <v>0.078125</v>
+        <v>0.328125</v>
       </c>
       <c r="E7" t="n">
-        <v>2.078125</v>
+        <v>0.328125</v>
       </c>
       <c r="F7" t="n">
-        <v>1.25390625</v>
+        <v>1.37890625</v>
       </c>
       <c r="G7" t="n">
-        <v>0.90234375</v>
+        <v>0.95234375</v>
       </c>
       <c r="H7" t="n">
         <v>0.328125</v>
       </c>
       <c r="I7" t="n">
-        <v>1.19140625</v>
+        <v>1.06640625</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>2.2578125</v>
+        <v>2.1328125</v>
       </c>
     </row>
     <row r="8">
@@ -1695,34 +1695,34 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2.1953125</v>
+        <v>2.1328125</v>
       </c>
       <c r="C8" t="n">
-        <v>3.1953125</v>
+        <v>2.1328125</v>
       </c>
       <c r="D8" t="n">
-        <v>5.0390625</v>
+        <v>2.1640625</v>
       </c>
       <c r="E8" t="n">
-        <v>3.0390625</v>
+        <v>5.1640625</v>
       </c>
       <c r="F8" t="n">
-        <v>1.626953125</v>
+        <v>2.689453125</v>
       </c>
       <c r="G8" t="n">
-        <v>2.451171875</v>
+        <v>2.476171875</v>
       </c>
       <c r="H8" t="n">
         <v>2.1640625</v>
       </c>
       <c r="I8" t="n">
-        <v>0.595703125</v>
+        <v>0.533203125</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>1.12890625</v>
+        <v>1.06640625</v>
       </c>
     </row>
   </sheetData>
@@ -1768,7 +1768,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="C2" t="n">
         <v>60</v>
@@ -1781,7 +1781,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>60</v>
+        <v>48</v>
       </c>
       <c r="C3" t="n">
         <v>60</v>
@@ -1930,28 +1930,28 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>8</v>
+      </c>
+      <c r="C2" t="n">
+        <v>8</v>
+      </c>
+      <c r="D2" t="n">
+        <v>4</v>
+      </c>
+      <c r="E2" t="n">
         <v>7</v>
       </c>
-      <c r="C2" t="n">
-        <v>7</v>
-      </c>
-      <c r="D2" t="n">
-        <v>5</v>
-      </c>
-      <c r="E2" t="n">
-        <v>4</v>
-      </c>
       <c r="F2" t="n">
-        <v>3.5</v>
+        <v>6</v>
       </c>
       <c r="G2" t="n">
-        <v>4.5</v>
+        <v>5.2</v>
       </c>
       <c r="H2" t="n">
         <v>4</v>
       </c>
       <c r="I2" t="n">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -2041,10 +2041,10 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>180</v>
+        <v>228</v>
       </c>
       <c r="D2" t="n">
-        <v>15.44459375</v>
+        <v>10.21715663580247</v>
       </c>
     </row>
   </sheetData>

--- a/Dynamic Scheduler/Results/workout_schedule.xlsx
+++ b/Dynamic Scheduler/Results/workout_schedule.xlsx
@@ -430,7 +430,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L15"/>
+  <dimension ref="A1:O8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -446,52 +446,67 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Chest_press</t>
+          <t>Bench Press (Dumbbell)</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Pulldown</t>
+          <t>Incline Chest Press Machine</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>Curls</t>
+          <t>Pec Deck Machine</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>Tricep_ext</t>
+          <t>Reverse Fly Machine</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>Leg_curls</t>
+          <t>Pull-Ups</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>Leg_extensions</t>
+          <t>Dumbbell Curls</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>Calf_raises</t>
+          <t>Tricep Pushdowns (Cable)</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>Lateral_raises</t>
+          <t>Hip Thrust (Barbell)</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>chest_supported_row</t>
+          <t>Seated Calf Raises (Machine)</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>Chest_fly</t>
+          <t>T-Bar Row</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>Cable Lateral Raises</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>Shoulder Press Machine</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>Leg Press Machine</t>
         </is>
       </c>
     </row>
@@ -501,7 +516,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Monday (Original)</t>
+          <t>Monday (Optimized)</t>
         </is>
       </c>
       <c r="C2" t="n">
@@ -517,13 +532,13 @@
         <v>2</v>
       </c>
       <c r="G2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I2" t="n">
         <v>2</v>
-      </c>
-      <c r="H2" t="n">
-        <v>2</v>
-      </c>
-      <c r="I2" t="n">
-        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>2</v>
@@ -532,6 +547,15 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
+        <v>2</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O2" t="n">
         <v>0</v>
       </c>
     </row>
@@ -541,14 +565,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Tuesday (Original)</t>
+          <t>Tuesday (Optimized)</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
@@ -563,16 +587,25 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>2</v>
+        <v>0</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O3" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -581,7 +614,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Wednesday (Original)</t>
+          <t>Wednesday (Optimized)</t>
         </is>
       </c>
       <c r="C4" t="n">
@@ -612,6 +645,15 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
+        <v>0</v>
+      </c>
+      <c r="M4" t="n">
+        <v>0</v>
+      </c>
+      <c r="N4" t="n">
+        <v>0</v>
+      </c>
+      <c r="O4" t="n">
         <v>0</v>
       </c>
     </row>
@@ -621,7 +663,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Thursday (Original)</t>
+          <t>Thursday (Optimized)</t>
         </is>
       </c>
       <c r="C5" t="n">
@@ -631,13 +673,13 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H5" t="n">
         <v>2</v>
@@ -646,13 +688,22 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
+        <v>0</v>
+      </c>
+      <c r="K5" t="n">
         <v>2</v>
       </c>
-      <c r="K5" t="n">
-        <v>0</v>
-      </c>
       <c r="L5" t="n">
         <v>0</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0</v>
+      </c>
+      <c r="O5" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="6">
@@ -661,17 +712,17 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Friday (Original)</t>
+          <t>Friday (Optimized)</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
         <v>2</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
@@ -683,16 +734,25 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K6" t="n">
+        <v>0</v>
+      </c>
+      <c r="L6" t="n">
+        <v>0</v>
+      </c>
+      <c r="M6" t="n">
         <v>2</v>
       </c>
-      <c r="J6" t="n">
-        <v>0</v>
-      </c>
-      <c r="K6" t="n">
+      <c r="N6" t="n">
         <v>2</v>
       </c>
-      <c r="L6" t="n">
-        <v>2</v>
+      <c r="O6" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -701,7 +761,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Saturday (Original)</t>
+          <t>Saturday (Optimized)</t>
         </is>
       </c>
       <c r="C7" t="n">
@@ -732,6 +792,15 @@
         <v>0</v>
       </c>
       <c r="L7" t="n">
+        <v>0</v>
+      </c>
+      <c r="M7" t="n">
+        <v>0</v>
+      </c>
+      <c r="N7" t="n">
+        <v>0</v>
+      </c>
+      <c r="O7" t="n">
         <v>0</v>
       </c>
     </row>
@@ -741,7 +810,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Sunday (Original)</t>
+          <t>Sunday (Optimized)</t>
         </is>
       </c>
       <c r="C8" t="n">
@@ -774,284 +843,13 @@
       <c r="L8" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>Monday (Optimized)</t>
-        </is>
-      </c>
-      <c r="C9" t="n">
-        <v>0</v>
-      </c>
-      <c r="D9" t="n">
-        <v>0</v>
-      </c>
-      <c r="E9" t="n">
-        <v>0</v>
-      </c>
-      <c r="F9" t="n">
-        <v>0</v>
-      </c>
-      <c r="G9" t="n">
-        <v>0</v>
-      </c>
-      <c r="H9" t="n">
-        <v>0</v>
-      </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" t="n">
-        <v>0</v>
-      </c>
-      <c r="K9" t="n">
-        <v>0</v>
-      </c>
-      <c r="L9" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>Tuesday (Optimized)</t>
-        </is>
-      </c>
-      <c r="C10" t="n">
-        <v>3</v>
-      </c>
-      <c r="D10" t="n">
-        <v>0</v>
-      </c>
-      <c r="E10" t="n">
-        <v>0</v>
-      </c>
-      <c r="F10" t="n">
-        <v>1</v>
-      </c>
-      <c r="G10" t="n">
-        <v>0</v>
-      </c>
-      <c r="H10" t="n">
-        <v>0</v>
-      </c>
-      <c r="I10" t="n">
-        <v>2</v>
-      </c>
-      <c r="J10" t="n">
-        <v>2</v>
-      </c>
-      <c r="K10" t="n">
-        <v>3</v>
-      </c>
-      <c r="L10" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>Wednesday (Optimized)</t>
-        </is>
-      </c>
-      <c r="C11" t="n">
-        <v>0</v>
-      </c>
-      <c r="D11" t="n">
-        <v>0</v>
-      </c>
-      <c r="E11" t="n">
-        <v>0</v>
-      </c>
-      <c r="F11" t="n">
-        <v>0</v>
-      </c>
-      <c r="G11" t="n">
-        <v>0</v>
-      </c>
-      <c r="H11" t="n">
-        <v>0</v>
-      </c>
-      <c r="I11" t="n">
-        <v>0</v>
-      </c>
-      <c r="J11" t="n">
-        <v>0</v>
-      </c>
-      <c r="K11" t="n">
-        <v>0</v>
-      </c>
-      <c r="L11" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>Thursday (Optimized)</t>
-        </is>
-      </c>
-      <c r="C12" t="n">
-        <v>0</v>
-      </c>
-      <c r="D12" t="n">
-        <v>0</v>
-      </c>
-      <c r="E12" t="n">
-        <v>0</v>
-      </c>
-      <c r="F12" t="n">
-        <v>0</v>
-      </c>
-      <c r="G12" t="n">
-        <v>0</v>
-      </c>
-      <c r="H12" t="n">
-        <v>0</v>
-      </c>
-      <c r="I12" t="n">
-        <v>0</v>
-      </c>
-      <c r="J12" t="n">
-        <v>0</v>
-      </c>
-      <c r="K12" t="n">
-        <v>0</v>
-      </c>
-      <c r="L12" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>Friday (Optimized)</t>
-        </is>
-      </c>
-      <c r="C13" t="n">
-        <v>2</v>
-      </c>
-      <c r="D13" t="n">
-        <v>0</v>
-      </c>
-      <c r="E13" t="n">
-        <v>0</v>
-      </c>
-      <c r="F13" t="n">
-        <v>0</v>
-      </c>
-      <c r="G13" t="n">
-        <v>2</v>
-      </c>
-      <c r="H13" t="n">
-        <v>0</v>
-      </c>
-      <c r="I13" t="n">
-        <v>2</v>
-      </c>
-      <c r="J13" t="n">
-        <v>0</v>
-      </c>
-      <c r="K13" t="n">
-        <v>2</v>
-      </c>
-      <c r="L13" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>Saturday (Optimized)</t>
-        </is>
-      </c>
-      <c r="C14" t="n">
-        <v>0</v>
-      </c>
-      <c r="D14" t="n">
-        <v>0</v>
-      </c>
-      <c r="E14" t="n">
-        <v>0</v>
-      </c>
-      <c r="F14" t="n">
-        <v>2</v>
-      </c>
-      <c r="G14" t="n">
-        <v>2</v>
-      </c>
-      <c r="H14" t="n">
-        <v>5</v>
-      </c>
-      <c r="I14" t="n">
-        <v>0</v>
-      </c>
-      <c r="J14" t="n">
-        <v>2</v>
-      </c>
-      <c r="K14" t="n">
-        <v>2</v>
-      </c>
-      <c r="L14" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="n">
-        <v>13</v>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>Sunday (Optimized)</t>
-        </is>
-      </c>
-      <c r="C15" t="n">
-        <v>0</v>
-      </c>
-      <c r="D15" t="n">
-        <v>0</v>
-      </c>
-      <c r="E15" t="n">
-        <v>0</v>
-      </c>
-      <c r="F15" t="n">
-        <v>0</v>
-      </c>
-      <c r="G15" t="n">
-        <v>0</v>
-      </c>
-      <c r="H15" t="n">
-        <v>0</v>
-      </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
-      <c r="J15" t="n">
-        <v>0</v>
-      </c>
-      <c r="K15" t="n">
-        <v>0</v>
-      </c>
-      <c r="L15" t="n">
+      <c r="M8" t="n">
+        <v>0</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0</v>
+      </c>
+      <c r="O8" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1112,12 +910,12 @@
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>Lateral_delts</t>
+          <t>Lateral_Delt</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>Front_delts</t>
+          <t>Front_Delt</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
@@ -1138,34 +936,34 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>4.485555555555555</v>
+        <v>4.01825489873057</v>
       </c>
       <c r="C2" t="n">
-        <v>3.938541666666666</v>
+        <v>4.2517568748592</v>
       </c>
       <c r="D2" t="n">
-        <v>2.564236111111111</v>
+        <v>1.572920275705487</v>
       </c>
       <c r="E2" t="n">
-        <v>2.588541666666667</v>
+        <v>1.071534639661485</v>
       </c>
       <c r="F2" t="n">
-        <v>1.969270833333333</v>
+        <v>2.30049002942003</v>
       </c>
       <c r="G2" t="n">
-        <v>3.082177083333333</v>
+        <v>2.223434377297582</v>
       </c>
       <c r="H2" t="n">
-        <v>2.807291666666667</v>
+        <v>2.009127449365285</v>
       </c>
       <c r="I2" t="n">
-        <v>1.539652777777778</v>
+        <v>1.781426338437219</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>2.172578832655326</v>
       </c>
       <c r="K2" t="n">
-        <v>3.119791666666666</v>
+        <v>1.339418299576856</v>
       </c>
     </row>
     <row r="3">
@@ -1175,34 +973,34 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>4.485555555555555</v>
+        <v>4.01825489873057</v>
       </c>
       <c r="C3" t="n">
-        <v>3.938541666666666</v>
+        <v>4.2517568748592</v>
       </c>
       <c r="D3" t="n">
-        <v>2.564236111111111</v>
+        <v>1.572920275705487</v>
       </c>
       <c r="E3" t="n">
-        <v>2.588541666666667</v>
+        <v>1.071534639661485</v>
       </c>
       <c r="F3" t="n">
-        <v>1.969270833333333</v>
+        <v>2.30049002942003</v>
       </c>
       <c r="G3" t="n">
-        <v>3.082177083333333</v>
+        <v>2.223434377297582</v>
       </c>
       <c r="H3" t="n">
-        <v>2.807291666666667</v>
+        <v>2.009127449365285</v>
       </c>
       <c r="I3" t="n">
-        <v>1.539652777777778</v>
+        <v>1.781426338437219</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>2.172578832655326</v>
       </c>
       <c r="K3" t="n">
-        <v>3.119791666666666</v>
+        <v>1.339418299576856</v>
       </c>
     </row>
     <row r="4">
@@ -1212,34 +1010,34 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>4.485555555555555</v>
+        <v>4.01825489873057</v>
       </c>
       <c r="C4" t="n">
-        <v>3.938541666666666</v>
+        <v>4.2517568748592</v>
       </c>
       <c r="D4" t="n">
-        <v>2.564236111111111</v>
+        <v>1.572920275705487</v>
       </c>
       <c r="E4" t="n">
-        <v>2.588541666666667</v>
+        <v>1.071534639661485</v>
       </c>
       <c r="F4" t="n">
-        <v>1.969270833333333</v>
+        <v>2.30049002942003</v>
       </c>
       <c r="G4" t="n">
-        <v>3.082177083333333</v>
+        <v>2.223434377297582</v>
       </c>
       <c r="H4" t="n">
-        <v>2.807291666666667</v>
+        <v>2.009127449365285</v>
       </c>
       <c r="I4" t="n">
-        <v>1.539652777777778</v>
+        <v>1.781426338437219</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>2.172578832655326</v>
       </c>
       <c r="K4" t="n">
-        <v>3.119791666666666</v>
+        <v>1.339418299576856</v>
       </c>
     </row>
     <row r="5">
@@ -1249,34 +1047,34 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>4.485555555555555</v>
+        <v>4.01825489873057</v>
       </c>
       <c r="C5" t="n">
-        <v>3.938541666666666</v>
+        <v>4.2517568748592</v>
       </c>
       <c r="D5" t="n">
-        <v>2.564236111111111</v>
+        <v>1.572920275705487</v>
       </c>
       <c r="E5" t="n">
-        <v>2.588541666666667</v>
+        <v>1.071534639661485</v>
       </c>
       <c r="F5" t="n">
-        <v>1.969270833333333</v>
+        <v>2.30049002942003</v>
       </c>
       <c r="G5" t="n">
-        <v>3.082177083333333</v>
+        <v>2.223434377297582</v>
       </c>
       <c r="H5" t="n">
-        <v>2.807291666666667</v>
+        <v>2.009127449365285</v>
       </c>
       <c r="I5" t="n">
-        <v>1.539652777777778</v>
+        <v>1.781426338437219</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>2.172578832655326</v>
       </c>
       <c r="K5" t="n">
-        <v>3.119791666666666</v>
+        <v>1.339418299576856</v>
       </c>
     </row>
     <row r="6">
@@ -1286,34 +1084,34 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>4.485555555555555</v>
+        <v>4.01825489873057</v>
       </c>
       <c r="C6" t="n">
-        <v>3.938541666666666</v>
+        <v>4.2517568748592</v>
       </c>
       <c r="D6" t="n">
-        <v>2.564236111111111</v>
+        <v>1.572920275705487</v>
       </c>
       <c r="E6" t="n">
-        <v>2.588541666666667</v>
+        <v>1.071534639661485</v>
       </c>
       <c r="F6" t="n">
-        <v>1.969270833333333</v>
+        <v>2.30049002942003</v>
       </c>
       <c r="G6" t="n">
-        <v>3.082177083333333</v>
+        <v>2.223434377297582</v>
       </c>
       <c r="H6" t="n">
-        <v>2.807291666666667</v>
+        <v>2.009127449365285</v>
       </c>
       <c r="I6" t="n">
-        <v>1.539652777777778</v>
+        <v>1.781426338437219</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>2.172578832655326</v>
       </c>
       <c r="K6" t="n">
-        <v>3.119791666666666</v>
+        <v>1.339418299576856</v>
       </c>
     </row>
     <row r="7">
@@ -1323,34 +1121,34 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>4.485555555555555</v>
+        <v>4.01825489873057</v>
       </c>
       <c r="C7" t="n">
-        <v>3.938541666666666</v>
+        <v>4.2517568748592</v>
       </c>
       <c r="D7" t="n">
-        <v>2.564236111111111</v>
+        <v>1.572920275705487</v>
       </c>
       <c r="E7" t="n">
-        <v>2.588541666666667</v>
+        <v>1.071534639661485</v>
       </c>
       <c r="F7" t="n">
-        <v>1.969270833333333</v>
+        <v>2.30049002942003</v>
       </c>
       <c r="G7" t="n">
-        <v>3.082177083333333</v>
+        <v>2.223434377297582</v>
       </c>
       <c r="H7" t="n">
-        <v>2.807291666666667</v>
+        <v>2.009127449365285</v>
       </c>
       <c r="I7" t="n">
-        <v>1.539652777777778</v>
+        <v>1.781426338437219</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>2.172578832655326</v>
       </c>
       <c r="K7" t="n">
-        <v>3.119791666666666</v>
+        <v>1.339418299576856</v>
       </c>
     </row>
     <row r="8">
@@ -1360,34 +1158,34 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>4.485555555555555</v>
+        <v>4.01825489873057</v>
       </c>
       <c r="C8" t="n">
-        <v>3.938541666666666</v>
+        <v>4.2517568748592</v>
       </c>
       <c r="D8" t="n">
-        <v>2.564236111111111</v>
+        <v>1.572920275705487</v>
       </c>
       <c r="E8" t="n">
-        <v>2.588541666666667</v>
+        <v>1.071534639661485</v>
       </c>
       <c r="F8" t="n">
-        <v>1.969270833333333</v>
+        <v>2.30049002942003</v>
       </c>
       <c r="G8" t="n">
-        <v>3.082177083333333</v>
+        <v>2.223434377297582</v>
       </c>
       <c r="H8" t="n">
-        <v>2.807291666666667</v>
+        <v>2.009127449365285</v>
       </c>
       <c r="I8" t="n">
-        <v>1.539652777777778</v>
+        <v>1.781426338437219</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>2.172578832655326</v>
       </c>
       <c r="K8" t="n">
-        <v>3.119791666666666</v>
+        <v>1.339418299576856</v>
       </c>
     </row>
   </sheetData>
@@ -1447,12 +1245,12 @@
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>Lateral_delts</t>
+          <t>Lateral_Delt</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>Front_delts</t>
+          <t>Front_Delt</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
@@ -1473,34 +1271,34 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>2.5</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>2.5</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>2.125</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>2.075</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>2.5</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0.125</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>0.25</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -1510,34 +1308,34 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.25</v>
+        <v>2.248557847557235</v>
       </c>
       <c r="C3" t="n">
-        <v>0.25</v>
+        <v>4.497115695114471</v>
       </c>
       <c r="D3" t="n">
-        <v>1.25</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>1.25</v>
+        <v>1.798846278045788</v>
       </c>
       <c r="F3" t="n">
-        <v>1.0625</v>
+        <v>0.7420240896938878</v>
       </c>
       <c r="G3" t="n">
-        <v>1.0375</v>
+        <v>2.248557847557235</v>
       </c>
       <c r="H3" t="n">
-        <v>1.25</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0.0625</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>1.798846278045788</v>
       </c>
       <c r="K3" t="n">
-        <v>0.125</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -1547,34 +1345,34 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>3.125</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>3.125</v>
+        <v>2.248557847557235</v>
       </c>
       <c r="D4" t="n">
-        <v>0.625</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0.625</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>2.03125</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>2.41875</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>2.625</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>1.53125</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>2.0625</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -1584,34 +1382,34 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1.5625</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>1.5625</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0.3125</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0.3125</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>1.015625</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>1.209375</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>1.3125</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0.765625</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>1.03125</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -1621,34 +1419,34 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.78125</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>0.78125</v>
+        <v>3.612058261662468</v>
       </c>
       <c r="D6" t="n">
-        <v>0.15625</v>
+        <v>3.612058261662468</v>
       </c>
       <c r="E6" t="n">
-        <v>0.15625</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>0.5078125</v>
+        <v>3.44053707390585</v>
       </c>
       <c r="G6" t="n">
-        <v>0.6046875</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>0.65625</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0.3828125</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>2.528440783163727</v>
       </c>
       <c r="K6" t="n">
-        <v>0.515625</v>
+        <v>2.248557847557235</v>
       </c>
     </row>
     <row r="7">
@@ -1658,34 +1456,34 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>4.390625</v>
+        <v>4.497115695114471</v>
       </c>
       <c r="C7" t="n">
-        <v>2.390625</v>
+        <v>1.806029130831234</v>
       </c>
       <c r="D7" t="n">
-        <v>0.078125</v>
+        <v>1.806029130831234</v>
       </c>
       <c r="E7" t="n">
-        <v>2.078125</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>1.25390625</v>
+        <v>1.720268536952925</v>
       </c>
       <c r="G7" t="n">
-        <v>0.90234375</v>
+        <v>1.484048179387776</v>
       </c>
       <c r="H7" t="n">
-        <v>0.328125</v>
+        <v>3.372836771335853</v>
       </c>
       <c r="I7" t="n">
-        <v>1.19140625</v>
+        <v>2.990581937251123</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>1.264220391581864</v>
       </c>
       <c r="K7" t="n">
-        <v>2.2578125</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1695,34 +1493,34 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2.1953125</v>
+        <v>2.248557847557235</v>
       </c>
       <c r="C8" t="n">
-        <v>3.1953125</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>5.0390625</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>3.0390625</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>1.626953125</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>2.451171875</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>2.1640625</v>
+        <v>1.686418385667927</v>
       </c>
       <c r="I8" t="n">
-        <v>0.595703125</v>
+        <v>1.495290968625562</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>1.12890625</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -1768,7 +1566,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="C2" t="n">
         <v>60</v>
@@ -1781,10 +1579,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>60</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -1807,10 +1605,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>57</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>60</v>
       </c>
     </row>
     <row r="6">
@@ -1820,7 +1618,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>60</v>
+        <v>52.5</v>
       </c>
       <c r="C6" t="n">
         <v>60</v>
@@ -1833,10 +1631,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>60</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1904,12 +1702,12 @@
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>Lateral_delts</t>
+          <t>Lateral_Delt</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>Front_delts</t>
+          <t>Front_Delt</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
@@ -1930,34 +1728,34 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C2" t="n">
         <v>7</v>
       </c>
       <c r="D2" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E2" t="n">
-        <v>4</v>
+        <v>1.6</v>
       </c>
       <c r="F2" t="n">
-        <v>3.5</v>
+        <v>3.65</v>
       </c>
       <c r="G2" t="n">
-        <v>4.5</v>
+        <v>3.32</v>
       </c>
       <c r="H2" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I2" t="n">
-        <v>2.5</v>
+        <v>2.66</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>3.7</v>
       </c>
       <c r="K2" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3">
@@ -1966,35 +1764,55 @@
           <t>Target Volume</t>
         </is>
       </c>
-      <c r="B3" t="n">
-        <v>8</v>
-      </c>
-      <c r="C3" t="n">
-        <v>8</v>
-      </c>
-      <c r="D3" t="n">
-        <v>4</v>
-      </c>
-      <c r="E3" t="n">
-        <v>4</v>
-      </c>
-      <c r="F3" t="n">
-        <v>4</v>
-      </c>
-      <c r="G3" t="n">
-        <v>4</v>
-      </c>
-      <c r="H3" t="n">
-        <v>4</v>
-      </c>
-      <c r="I3" t="n">
-        <v>0</v>
-      </c>
-      <c r="J3" t="n">
-        <v>0</v>
-      </c>
-      <c r="K3" t="n">
-        <v>4</v>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>7.5</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>9.7</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>4.5</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>4.5</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.5</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>4.5</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>3.00000000000000</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>3.00000000000000</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>4.5</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>3.00000000000000</t>
+        </is>
       </c>
     </row>
   </sheetData>
@@ -2041,10 +1859,12 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>180</v>
-      </c>
-      <c r="D2" t="n">
-        <v>15.44459375</v>
+        <v>169.5</v>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>12.4331250000000</t>
+        </is>
       </c>
     </row>
   </sheetData>
